--- a/MEETING_2022_03_27/Result.xlsx
+++ b/MEETING_2022_03_27/Result.xlsx
@@ -472,7 +472,7 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img1.png</t>
+          <t>MEETING_2022_03_27-1</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -498,7 +498,7 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img15.png</t>
+          <t>MEETING_2022_03_27-15</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -524,7 +524,7 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img2.png</t>
+          <t>MEETING_2022_03_27-2</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -550,7 +550,7 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img4.png</t>
+          <t>MEETING_2022_03_27-4</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -576,7 +576,7 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img5.png</t>
+          <t>MEETING_2022_03_27-5</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -602,7 +602,7 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img7.png</t>
+          <t>MEETING_2022_03_27-7</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -628,7 +628,7 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img8.png</t>
+          <t>MEETING_2022_03_27-8</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -654,7 +654,7 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img11.png</t>
+          <t>MEETING_2022_03_27-11</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -680,7 +680,7 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img12.png</t>
+          <t>MEETING_2022_03_27-12</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -706,7 +706,7 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img18.png</t>
+          <t>MEETING_2022_03_27-18</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -732,7 +732,7 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img19.png</t>
+          <t>MEETING_2022_03_27-19</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -758,7 +758,7 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img20.png</t>
+          <t>MEETING_2022_03_27-20</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -784,7 +784,7 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img21.png</t>
+          <t>MEETING_2022_03_27-21</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -810,7 +810,7 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img24.png</t>
+          <t>MEETING_2022_03_27-24</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -836,7 +836,7 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img25.png</t>
+          <t>MEETING_2022_03_27-25</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -862,7 +862,7 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img22.png</t>
+          <t>MEETING_2022_03_27-22</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -888,7 +888,7 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img26.png</t>
+          <t>MEETING_2022_03_27-26</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -914,7 +914,7 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img13.png</t>
+          <t>MEETING_2022_03_27-13</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -940,7 +940,7 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img27.png</t>
+          <t>MEETING_2022_03_27-27</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -966,7 +966,7 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img28.png</t>
+          <t>MEETING_2022_03_27-28</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -992,7 +992,7 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img29.png</t>
+          <t>MEETING_2022_03_27-29</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1018,7 +1018,7 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img31.png</t>
+          <t>MEETING_2022_03_27-31</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1044,7 +1044,7 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img16.png</t>
+          <t>MEETING_2022_03_27-16</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1070,7 +1070,7 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img32.png</t>
+          <t>MEETING_2022_03_27-32</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1096,7 +1096,7 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img9.png</t>
+          <t>MEETING_2022_03_27-9</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1122,7 +1122,7 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img33.png</t>
+          <t>MEETING_2022_03_27-33</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1148,7 +1148,7 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img34.png</t>
+          <t>MEETING_2022_03_27-34</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1174,7 +1174,7 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img35.png</t>
+          <t>MEETING_2022_03_27-35</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1200,7 +1200,7 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img36.png</t>
+          <t>MEETING_2022_03_27-36</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1226,7 +1226,7 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img37.png</t>
+          <t>MEETING_2022_03_27-37</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1252,7 +1252,7 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img38.png</t>
+          <t>MEETING_2022_03_27-38</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1278,7 +1278,7 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img39.png</t>
+          <t>MEETING_2022_03_27-39</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1304,7 +1304,7 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img40.png</t>
+          <t>MEETING_2022_03_27-40</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1330,7 +1330,7 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img43.png</t>
+          <t>MEETING_2022_03_27-43</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1356,7 +1356,7 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img41.png</t>
+          <t>MEETING_2022_03_27-41</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1382,7 +1382,7 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img44.png</t>
+          <t>MEETING_2022_03_27-44</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1408,7 +1408,7 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img45.png</t>
+          <t>MEETING_2022_03_27-45</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1434,7 +1434,7 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img46.png</t>
+          <t>MEETING_2022_03_27-46</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1460,7 +1460,7 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img47.png</t>
+          <t>MEETING_2022_03_27-47</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1486,7 +1486,7 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img48.png</t>
+          <t>MEETING_2022_03_27-48</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1512,7 +1512,7 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img49.png</t>
+          <t>MEETING_2022_03_27-49</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1538,7 +1538,7 @@
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img50.png</t>
+          <t>MEETING_2022_03_27-50</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1564,7 +1564,7 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img51.png</t>
+          <t>MEETING_2022_03_27-51</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1590,7 +1590,7 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img52.png</t>
+          <t>MEETING_2022_03_27-52</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1616,7 +1616,7 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img53.png</t>
+          <t>MEETING_2022_03_27-53</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1642,7 +1642,7 @@
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img54.png</t>
+          <t>MEETING_2022_03_27-54</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1668,7 +1668,7 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img55.png</t>
+          <t>MEETING_2022_03_27-55</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img102.png</t>
+          <t>MEETING_2022_03_27-102</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1724,7 +1724,7 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img56.png</t>
+          <t>MEETING_2022_03_27-56</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1750,7 +1750,7 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img57.png</t>
+          <t>MEETING_2022_03_27-57</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1776,7 +1776,7 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img58.png</t>
+          <t>MEETING_2022_03_27-58</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1802,7 +1802,7 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img60.png</t>
+          <t>MEETING_2022_03_27-60</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1828,7 +1828,7 @@
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img61.png</t>
+          <t>MEETING_2022_03_27-61</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1854,7 +1854,7 @@
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img62.png</t>
+          <t>MEETING_2022_03_27-62</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1880,7 +1880,7 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img63.png</t>
+          <t>MEETING_2022_03_27-63</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1906,7 +1906,7 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img42.png</t>
+          <t>MEETING_2022_03_27-42</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1932,7 +1932,7 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img64.png</t>
+          <t>MEETING_2022_03_27-64</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1958,7 +1958,7 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img65.png</t>
+          <t>MEETING_2022_03_27-65</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1984,7 +1984,7 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img66.png</t>
+          <t>MEETING_2022_03_27-66</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2010,7 +2010,7 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img67.png</t>
+          <t>MEETING_2022_03_27-67</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2036,7 +2036,7 @@
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img68.png</t>
+          <t>MEETING_2022_03_27-68</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2062,7 +2062,7 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img69.png</t>
+          <t>MEETING_2022_03_27-69</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2088,7 +2088,7 @@
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img70.png</t>
+          <t>MEETING_2022_03_27-70</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2114,7 +2114,7 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img71.png</t>
+          <t>MEETING_2022_03_27-71</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -2140,7 +2140,7 @@
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img72.png</t>
+          <t>MEETING_2022_03_27-72</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -2166,7 +2166,7 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img73.png</t>
+          <t>MEETING_2022_03_27-73</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -2192,7 +2192,7 @@
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img74.png</t>
+          <t>MEETING_2022_03_27-74</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2218,7 +2218,7 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img75.png</t>
+          <t>MEETING_2022_03_27-75</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2244,7 +2244,7 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img76.png</t>
+          <t>MEETING_2022_03_27-76</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2270,7 +2270,7 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img77.png</t>
+          <t>MEETING_2022_03_27-77</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -2296,7 +2296,7 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img78.png</t>
+          <t>MEETING_2022_03_27-78</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -2322,7 +2322,7 @@
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img79.png</t>
+          <t>MEETING_2022_03_27-79</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -2348,7 +2348,7 @@
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img80.png</t>
+          <t>MEETING_2022_03_27-80</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -2374,7 +2374,7 @@
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img3.png</t>
+          <t>MEETING_2022_03_27-3</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -2400,7 +2400,7 @@
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img81.png</t>
+          <t>MEETING_2022_03_27-81</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -2426,7 +2426,7 @@
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img82.png</t>
+          <t>MEETING_2022_03_27-82</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -2452,7 +2452,7 @@
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img83.png</t>
+          <t>MEETING_2022_03_27-83</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2478,7 +2478,7 @@
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img84.png</t>
+          <t>MEETING_2022_03_27-84</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2504,7 +2504,7 @@
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img85.png</t>
+          <t>MEETING_2022_03_27-85</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2530,7 +2530,7 @@
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img6.png</t>
+          <t>MEETING_2022_03_27-6</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -2556,7 +2556,7 @@
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img86.png</t>
+          <t>MEETING_2022_03_27-86</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2582,7 +2582,7 @@
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img59.png</t>
+          <t>MEETING_2022_03_27-59</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2608,7 +2608,7 @@
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img87.png</t>
+          <t>MEETING_2022_03_27-87</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2634,7 +2634,7 @@
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img88.png</t>
+          <t>MEETING_2022_03_27-88</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2660,7 +2660,7 @@
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img17.png</t>
+          <t>MEETING_2022_03_27-17</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2686,7 +2686,7 @@
       <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img30.png</t>
+          <t>MEETING_2022_03_27-30</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2712,7 +2712,7 @@
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img89.png</t>
+          <t>MEETING_2022_03_27-89</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2738,7 +2738,7 @@
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img90.png</t>
+          <t>MEETING_2022_03_27-90</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2764,7 +2764,7 @@
       <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img91.png</t>
+          <t>MEETING_2022_03_27-91</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2790,7 +2790,7 @@
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img92.png</t>
+          <t>MEETING_2022_03_27-92</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2816,7 +2816,7 @@
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img14.png</t>
+          <t>MEETING_2022_03_27-14</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -2842,7 +2842,7 @@
       <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img93.png</t>
+          <t>MEETING_2022_03_27-93</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -2868,7 +2868,7 @@
       <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img94.png</t>
+          <t>MEETING_2022_03_27-94</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -2894,7 +2894,7 @@
       <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img95.png</t>
+          <t>MEETING_2022_03_27-95</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -2920,7 +2920,7 @@
       <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img96.png</t>
+          <t>MEETING_2022_03_27-96</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -2946,7 +2946,7 @@
       <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img97.png</t>
+          <t>MEETING_2022_03_27-97</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -2972,7 +2972,7 @@
       <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img98.png</t>
+          <t>MEETING_2022_03_27-98</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2998,7 +2998,7 @@
       <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img99.png</t>
+          <t>MEETING_2022_03_27-99</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -3024,7 +3024,7 @@
       <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img100.png</t>
+          <t>MEETING_2022_03_27-100</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -3050,7 +3050,7 @@
       <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img10.png</t>
+          <t>MEETING_2022_03_27-10</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -3076,7 +3076,7 @@
       <c r="A102" t="inlineStr"/>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img23.png</t>
+          <t>MEETING_2022_03_27-23</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MEETING_2022_03_27-img101.png</t>
+          <t>MEETING_2022_03_27-101</t>
         </is>
       </c>
       <c r="C103" t="n">
